--- a/data/trans_orig/P41B-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P41B-Estudios-trans_orig.xlsx
@@ -747,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>6133</v>
+        <v>6221</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.001369313910107135</v>
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.007858070713017206</v>
+        <v>0.007970180631900107</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1</v>
@@ -768,7 +768,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>6030</v>
+        <v>6474</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.001104480103231148</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.005532429612687732</v>
+        <v>0.005940385449293306</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>2</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>7057</v>
+        <v>8915</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.001214995868579441</v>
@@ -798,7 +798,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.003773053369201142</v>
+        <v>0.004766229215980425</v>
       </c>
     </row>
     <row r="5">
@@ -831,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>10183</v>
+        <v>8096</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.001461991127597297</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.009343104036626393</v>
+        <v>0.007428515633099791</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1</v>
@@ -852,7 +852,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>7930</v>
+        <v>7987</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.0008518988198788595</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.004239809839038148</v>
+        <v>0.004270155659925775</v>
       </c>
     </row>
     <row r="6">
@@ -925,19 +925,19 @@
         <v>5727</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>2119</v>
+        <v>2175</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>11696</v>
+        <v>11587</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.007337442213277221</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.002714288607323157</v>
+        <v>0.002786095138592128</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01498459249389984</v>
+        <v>0.0148452519743149</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>6</v>
@@ -946,19 +946,19 @@
         <v>6571</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>2882</v>
+        <v>2489</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>14109</v>
+        <v>13149</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.006029183215867095</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.002644447788975772</v>
+        <v>0.002283938631830435</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.0129459293294622</v>
+        <v>0.01206437927293751</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>12</v>
@@ -967,19 +967,19 @@
         <v>12298</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>6734</v>
+        <v>6634</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>21481</v>
+        <v>20682</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.006575122747070053</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.003600122695674382</v>
+        <v>0.003546704310060126</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01148493673156789</v>
+        <v>0.01105769340543851</v>
       </c>
     </row>
     <row r="8">
@@ -996,19 +996,19 @@
         <v>14889</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>8231</v>
+        <v>8446</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>24729</v>
+        <v>24479</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.01907566305263731</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.01054603931010343</v>
+        <v>0.01082101988728143</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.03168218482694638</v>
+        <v>0.03136180339024933</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>15</v>
@@ -1017,19 +1017,19 @@
         <v>16000</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>9320</v>
+        <v>9144</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>26649</v>
+        <v>27319</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.01468082955636142</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.008551712732572662</v>
+        <v>0.008389658402538564</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.02445163201642614</v>
+        <v>0.02506601438106613</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>28</v>
@@ -1038,19 +1038,19 @@
         <v>30889</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>21106</v>
+        <v>21142</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>43794</v>
+        <v>43932</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.01651480382554029</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.01128409274022672</v>
+        <v>0.01130338215755419</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.02341432474604007</v>
+        <v>0.02348797692706113</v>
       </c>
     </row>
     <row r="9">
@@ -1067,19 +1067,19 @@
         <v>2932</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>889</v>
+        <v>896</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>7879</v>
+        <v>8078</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.003756079105024715</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.001139485775346578</v>
+        <v>0.001148254750798958</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.01009448106700384</v>
+        <v>0.01034897727735232</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>4</v>
@@ -1088,19 +1088,19 @@
         <v>3934</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>10027</v>
+        <v>9442</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.003609444024317847</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.0009006845462415377</v>
+        <v>0.000898967634772718</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.009199948705032194</v>
+        <v>0.008663691512386608</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>7</v>
@@ -1109,19 +1109,19 @@
         <v>6866</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>2817</v>
+        <v>2856</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>13769</v>
+        <v>13722</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.003670635185530951</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.00150636106802426</v>
+        <v>0.001526708003319771</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.007361658481522537</v>
+        <v>0.007336289599207904</v>
       </c>
     </row>
     <row r="10">
@@ -1151,19 +1151,19 @@
         <v>8135</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>3733</v>
+        <v>3644</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>15174</v>
+        <v>14923</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.007463961892968036</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.003425096380519427</v>
+        <v>0.00334357183165906</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01392229135562891</v>
+        <v>0.01369225463979427</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>8</v>
@@ -1172,19 +1172,19 @@
         <v>8135</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>3851</v>
+        <v>3329</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>15251</v>
+        <v>15231</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.004349233184944265</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.002058954576525082</v>
+        <v>0.001780042085421227</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.008154038286213741</v>
+        <v>0.008143287821577912</v>
       </c>
     </row>
     <row r="11">
@@ -1201,19 +1201,19 @@
         <v>755904</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>743844</v>
+        <v>744260</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>765271</v>
+        <v>764467</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9684615017189536</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9530111777621642</v>
+        <v>0.9535441006415408</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9804628879251016</v>
+        <v>0.9794330715830586</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1037</v>
@@ -1222,19 +1222,19 @@
         <v>1052437</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>1038940</v>
+        <v>1035871</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>1062983</v>
+        <v>1062463</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9656501100796572</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9532659342168448</v>
+        <v>0.9504503086933661</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9753263769883246</v>
+        <v>0.9748492883829758</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1813</v>
@@ -1243,19 +1243,19 @@
         <v>1808341</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1790258</v>
+        <v>1789565</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1822282</v>
+        <v>1822788</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9668233103684561</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9571556857873393</v>
+        <v>0.956784846523601</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.974276921075465</v>
+        <v>0.9745477282991011</v>
       </c>
     </row>
     <row r="12">
@@ -1363,7 +1363,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>6264</v>
+        <v>7102</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.002865957281853613</v>
@@ -1372,7 +1372,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.008796677890704367</v>
+        <v>0.009973695976051139</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>2</v>
@@ -1384,7 +1384,7 @@
         <v>0</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>8133</v>
+        <v>7276</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.001498327145103001</v>
@@ -1393,7 +1393,7 @@
         <v>0</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.005971202790170383</v>
+        <v>0.005342368141270211</v>
       </c>
     </row>
     <row r="14">
@@ -1413,7 +1413,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>5940</v>
+        <v>5078</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.002586426612648572</v>
@@ -1422,7 +1422,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.009138969028522953</v>
+        <v>0.007813526510337681</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>5186</v>
+        <v>5066</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.001234238557688546</v>
@@ -1456,7 +1456,7 @@
         <v>0</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.003807650598914647</v>
+        <v>0.00371934057517667</v>
       </c>
     </row>
     <row r="15">
@@ -1520,19 +1520,19 @@
         <v>4884</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1694</v>
+        <v>1802</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>10875</v>
+        <v>10814</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.007513896814667863</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.00260614277233321</v>
+        <v>0.0027721554550215</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01673221804485408</v>
+        <v>0.01663928550796845</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>6</v>
@@ -1541,19 +1541,19 @@
         <v>5958</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2196</v>
+        <v>1990</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>12024</v>
+        <v>11492</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.008367940080673254</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.003084253258245769</v>
+        <v>0.002795338112504531</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01688715308558517</v>
+        <v>0.01613982168883046</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>11</v>
@@ -1562,19 +1562,19 @@
         <v>10842</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>5766</v>
+        <v>5695</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>18795</v>
+        <v>18436</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.007960392028204567</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.004233581080905365</v>
+        <v>0.004181770991757539</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01379997921902181</v>
+        <v>0.01353640355571795</v>
       </c>
     </row>
     <row r="17">
@@ -1591,19 +1591,19 @@
         <v>16985</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>9638</v>
+        <v>10439</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>28030</v>
+        <v>28356</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.02613313219058634</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.01482927306040404</v>
+        <v>0.01606215627277293</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.04312709010576073</v>
+        <v>0.04362884930922339</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>9</v>
@@ -1612,19 +1612,19 @@
         <v>10525</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>4696</v>
+        <v>5224</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>19468</v>
+        <v>20231</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.0147812144471381</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.006594951673064173</v>
+        <v>0.007337187171148243</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.02734056115274795</v>
+        <v>0.02841262157423662</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>24</v>
@@ -1633,19 +1633,19 @@
         <v>27510</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>17810</v>
+        <v>17135</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>41242</v>
+        <v>39888</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.02019833106438669</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.01307691051057356</v>
+        <v>0.01258130659991789</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.03028117042637659</v>
+        <v>0.02928664079592666</v>
       </c>
     </row>
     <row r="18">
@@ -1662,19 +1662,19 @@
         <v>37357</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>27518</v>
+        <v>27912</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>50117</v>
+        <v>50749</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.05747862701643355</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.0423401887444552</v>
+        <v>0.04294598858683981</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.07711204911681278</v>
+        <v>0.07808414440493426</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>38</v>
@@ -1683,19 +1683,19 @@
         <v>39770</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>29614</v>
+        <v>28905</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>53287</v>
+        <v>55126</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.05585414090267476</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.04159040574121527</v>
+        <v>0.04059447817687402</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.07483683162839334</v>
+        <v>0.07741957549798781</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>76</v>
@@ -1704,19 +1704,19 @@
         <v>77127</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>61773</v>
+        <v>61659</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>95034</v>
+        <v>95587</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.05662934302448465</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.04535588405331536</v>
+        <v>0.04527201994249323</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.06977719676695955</v>
+        <v>0.07018291606174709</v>
       </c>
     </row>
     <row r="19">
@@ -1733,19 +1733,19 @@
         <v>31282</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>21767</v>
+        <v>22574</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>44213</v>
+        <v>45534</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.04813077296756878</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.03349116026757667</v>
+        <v>0.03473293564605066</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.06802677051143238</v>
+        <v>0.07005942774427426</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>34</v>
@@ -1754,19 +1754,19 @@
         <v>34704</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>24529</v>
+        <v>24883</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>47605</v>
+        <v>47403</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.04873921223033792</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.03444885615256844</v>
+        <v>0.03494590316559574</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.06685737644015689</v>
+        <v>0.06657411825602096</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>63</v>
@@ -1775,19 +1775,19 @@
         <v>65986</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>51230</v>
+        <v>51182</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>82816</v>
+        <v>83996</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.04844886600731006</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.03761495514564395</v>
+        <v>0.03757956743613243</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.06080573929779845</v>
+        <v>0.06167252370473718</v>
       </c>
     </row>
     <row r="20">
@@ -1804,19 +1804,19 @@
         <v>557742</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>539358</v>
+        <v>539596</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>574863</v>
+        <v>574307</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8581571443980949</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8298704500373311</v>
+        <v>0.8302375081650561</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8845003691450484</v>
+        <v>0.8836451360454978</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>604</v>
@@ -1825,19 +1825,19 @@
         <v>619042</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>599210</v>
+        <v>600062</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>635140</v>
+        <v>637205</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8693915350573224</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8415401522785573</v>
+        <v>0.8427369884283198</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8920001507338394</v>
+        <v>0.8949002302353396</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1155</v>
@@ -1846,19 +1846,19 @@
         <v>1176784</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1150544</v>
+        <v>1148508</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1201405</v>
+        <v>1201221</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8640305021728225</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8447646746444967</v>
+        <v>0.8432693386330917</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8821082274808004</v>
+        <v>0.881973231017793</v>
       </c>
     </row>
     <row r="21">
@@ -1966,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>9955</v>
+        <v>8372</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.008409802309999877</v>
@@ -1975,7 +1975,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.0528960927286036</v>
+        <v>0.04448804856979266</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1</v>
@@ -1987,7 +1987,7 @@
         <v>0</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>8282</v>
+        <v>8016</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.004177819498869311</v>
@@ -1996,7 +1996,7 @@
         <v>0</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02186239905221497</v>
+        <v>0.02115986004893948</v>
       </c>
     </row>
     <row r="23">
@@ -2107,19 +2107,19 @@
         <v>4552</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>992</v>
+        <v>951</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>12937</v>
+        <v>12661</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.0238790556683319</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.005203030901232246</v>
+        <v>0.004990626685082308</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.06786179002492317</v>
+        <v>0.06641590431106756</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>2</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>7450</v>
+        <v>7432</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.01120258262350248</v>
@@ -2140,7 +2140,7 @@
         <v>0</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.0395858612136397</v>
+        <v>0.03949022015249433</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>5</v>
@@ -2149,19 +2149,19 @@
         <v>6660</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>2050</v>
+        <v>2503</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>16116</v>
+        <v>15517</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01758164054353091</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.005410894832096282</v>
+        <v>0.006608039471527612</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.04254061593012541</v>
+        <v>0.04096072648787022</v>
       </c>
     </row>
     <row r="26">
@@ -2181,7 +2181,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>5210</v>
+        <v>4798</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.004905150768206586</v>
@@ -2190,7 +2190,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.02732902436010645</v>
+        <v>0.02516597346736803</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>4</v>
@@ -2199,19 +2199,19 @@
         <v>4969</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1187</v>
+        <v>1198</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>12947</v>
+        <v>12859</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.02640339652051737</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.006309145297868173</v>
+        <v>0.006366162708972432</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.06879483261206083</v>
+        <v>0.06832767973115257</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>5</v>
@@ -2220,19 +2220,19 @@
         <v>5904</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>2087</v>
+        <v>2123</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>14137</v>
+        <v>13187</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.01558504394342317</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.0055095808031877</v>
+        <v>0.005603183349396919</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.03731702323576212</v>
+        <v>0.03480846324372423</v>
       </c>
     </row>
     <row r="27">
@@ -2249,19 +2249,19 @@
         <v>13841</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>7672</v>
+        <v>7948</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>21840</v>
+        <v>22704</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.07260586876021011</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.04024586517871091</v>
+        <v>0.04169099150362536</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1145640717113504</v>
+        <v>0.1190954866142244</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>10</v>
@@ -2270,19 +2270,19 @@
         <v>10094</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>5006</v>
+        <v>5109</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>17950</v>
+        <v>18593</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.05363335581276853</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.02659764357665627</v>
+        <v>0.02714825692638292</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.09537749743661302</v>
+        <v>0.09879756226796185</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>26</v>
@@ -2291,19 +2291,19 @@
         <v>23935</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>15597</v>
+        <v>16182</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>33960</v>
+        <v>35595</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.06318070849929394</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.04117189564987001</v>
+        <v>0.04271449501416982</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.08964323066088369</v>
+        <v>0.09396045662717141</v>
       </c>
     </row>
     <row r="28">
@@ -2320,19 +2320,19 @@
         <v>16865</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>10458</v>
+        <v>10228</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>25097</v>
+        <v>26124</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.0884666637935375</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.05485677389055829</v>
+        <v>0.05365190309592133</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1316507016650913</v>
+        <v>0.1370359379561971</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>11</v>
@@ -2341,19 +2341,19 @@
         <v>12467</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>6459</v>
+        <v>6632</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>21915</v>
+        <v>21683</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.06624216059530585</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.03432005999249606</v>
+        <v>0.0352422910175887</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1164466941047967</v>
+        <v>0.1152137283167078</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>29</v>
@@ -2362,19 +2362,19 @@
         <v>29331</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>20405</v>
+        <v>20044</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>42926</v>
+        <v>41479</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.07742598062505802</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.05386370059436503</v>
+        <v>0.05291017002029495</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1133107040998992</v>
+        <v>0.1094929714474229</v>
       </c>
     </row>
     <row r="29">
@@ -2391,19 +2391,19 @@
         <v>154442</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>143800</v>
+        <v>141814</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>164325</v>
+        <v>164122</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.8101432610097139</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.7543193804027269</v>
+        <v>0.7438991149531394</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.8619833909561643</v>
+        <v>0.8609202104772737</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>151</v>
@@ -2412,19 +2412,19 @@
         <v>156976</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>145729</v>
+        <v>143653</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>166763</v>
+        <v>166353</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.8341087021379059</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.7743448985172573</v>
+        <v>0.7633135578526311</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.8861121059712614</v>
+        <v>0.8839332649320212</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>296</v>
@@ -2433,19 +2433,19 @@
         <v>311418</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>293534</v>
+        <v>295754</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>324992</v>
+        <v>326254</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.8220488068898246</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.7748382978697425</v>
+        <v>0.7806986995963042</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.8578785490572062</v>
+        <v>0.8612101411088616</v>
       </c>
     </row>
     <row r="30">
@@ -2540,7 +2540,7 @@
         <v>0</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>5373</v>
+        <v>6807</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.0006592968703508016</v>
@@ -2549,7 +2549,7 @@
         <v>0</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.003314329564092705</v>
+        <v>0.004198834643901253</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>4</v>
@@ -2558,19 +2558,19 @@
         <v>4827</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>1956</v>
+        <v>1203</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>12224</v>
+        <v>11158</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.00242554961874705</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.0009828688255274789</v>
+        <v>0.0006042611537559468</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.006142363123502954</v>
+        <v>0.005606552811123738</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>5</v>
@@ -2579,19 +2579,19 @@
         <v>5896</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>2267</v>
+        <v>2133</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>13385</v>
+        <v>13318</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.001632669137373615</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.0006276984360173781</v>
+        <v>0.0005907549184701153</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.003706455795732052</v>
+        <v>0.003687942612272566</v>
       </c>
     </row>
     <row r="32">
@@ -2611,7 +2611,7 @@
         <v>0</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>5894</v>
+        <v>5825</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.001036957156562686</v>
@@ -2620,7 +2620,7 @@
         <v>0</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.003635647623422805</v>
+        <v>0.003593234278050316</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>1</v>
@@ -2632,7 +2632,7 @@
         <v>0</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>9097</v>
+        <v>7655</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.0008006523028054909</v>
@@ -2641,7 +2641,7 @@
         <v>0</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.004570949881258702</v>
+        <v>0.003846557383531735</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>3</v>
@@ -2650,19 +2650,19 @@
         <v>3274</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>9790</v>
+        <v>9798</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.0009067308390557575</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.0002307620051060635</v>
+        <v>0.0002304713866022228</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.002711113368767954</v>
+        <v>0.002713283703914424</v>
       </c>
     </row>
     <row r="33">
@@ -2726,19 +2726,19 @@
         <v>15163</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>8148</v>
+        <v>8625</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>24828</v>
+        <v>26068</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.009353440573741325</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.005026056635731084</v>
+        <v>0.005320698711478346</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.01531571094753925</v>
+        <v>0.01608061732134333</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>14</v>
@@ -2747,19 +2747,19 @@
         <v>14638</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>8030</v>
+        <v>8115</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>23651</v>
+        <v>23250</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.00735519081292326</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.004034898559661088</v>
+        <v>0.004077736766576752</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.01188415947026769</v>
+        <v>0.01168282797333944</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>28</v>
@@ -2768,19 +2768,19 @@
         <v>29800</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>19640</v>
+        <v>19259</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>43573</v>
+        <v>41708</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.008252216017102212</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.005438614027994321</v>
+        <v>0.005333139448944783</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.0120661083471723</v>
+        <v>0.01154950314408031</v>
       </c>
     </row>
     <row r="35">
@@ -2797,19 +2797,19 @@
         <v>32809</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>22448</v>
+        <v>22200</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>46276</v>
+        <v>46895</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.0202387447316995</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.01384733373075947</v>
+        <v>0.01369473665963551</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.02854609012377717</v>
+        <v>0.02892846102369653</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>28</v>
@@ -2818,19 +2818,19 @@
         <v>31494</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>20626</v>
+        <v>21583</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>45437</v>
+        <v>45412</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.0158252971060426</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.01036448116995507</v>
+        <v>0.01084491969613093</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.02283163219666158</v>
+        <v>0.02281882378473934</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>57</v>
@@ -2839,19 +2839,19 @@
         <v>64303</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>49498</v>
+        <v>48918</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>82648</v>
+        <v>82160</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.01780651778984602</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.01370671851854681</v>
+        <v>0.01354607969138079</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.02288659551625793</v>
+        <v>0.02275135210202493</v>
       </c>
     </row>
     <row r="36">
@@ -2868,19 +2868,19 @@
         <v>54130</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>40606</v>
+        <v>41862</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>68817</v>
+        <v>69935</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.03339123700600733</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.02504886411845287</v>
+        <v>0.02582322390037746</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.04245099163851868</v>
+        <v>0.04314095768039682</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>52</v>
@@ -2889,19 +2889,19 @@
         <v>53798</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>39903</v>
+        <v>40046</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>68335</v>
+        <v>69125</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.02703257799674414</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.02005086126182358</v>
+        <v>0.02012262428995094</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.03433719802359178</v>
+        <v>0.03473407749244591</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>109</v>
@@ -2910,19 +2910,19 @@
         <v>107928</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>89251</v>
+        <v>88892</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>128943</v>
+        <v>131813</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.02988701466824087</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.02471518590598517</v>
+        <v>0.0246156516738583</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.03570658612424226</v>
+        <v>0.03650115789733838</v>
       </c>
     </row>
     <row r="37">
@@ -2939,19 +2939,19 @@
         <v>48147</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>35430</v>
+        <v>36453</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>63836</v>
+        <v>64324</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.02970018527585422</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.0218554680251824</v>
+        <v>0.02248698825330225</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.03937840815582234</v>
+        <v>0.03967963269763392</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>53</v>
@@ -2960,19 +2960,19 @@
         <v>55306</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>42658</v>
+        <v>41025</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>72321</v>
+        <v>71458</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.02779019872053583</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.02143524679274056</v>
+        <v>0.02061423163393692</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.03634012719071746</v>
+        <v>0.03590669945680322</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>100</v>
@@ -2981,19 +2981,19 @@
         <v>103452</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>84190</v>
+        <v>85342</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>124535</v>
+        <v>124982</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.02864760209090437</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.02331373559300195</v>
+        <v>0.02363260396246726</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.03448570063393509</v>
+        <v>0.03460949547630336</v>
       </c>
     </row>
     <row r="38">
@@ -3010,19 +3010,19 @@
         <v>1468087</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>1443477</v>
+        <v>1441873</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>1489600</v>
+        <v>1489314</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.9056201383857841</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.8904385072213263</v>
+        <v>0.8894494692275214</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.9188907135903069</v>
+        <v>0.918714231814547</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>1792</v>
@@ -3031,19 +3031,19 @@
         <v>1828454</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>1801535</v>
+        <v>1802467</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>1851793</v>
+        <v>1852086</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.9187705334422016</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.9052439585810699</v>
+        <v>0.9057122487910542</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.9304976801006281</v>
+        <v>0.9306450194835636</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>3264</v>
@@ -3052,19 +3052,19 @@
         <v>3296542</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>3258263</v>
+        <v>3262555</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>3329360</v>
+        <v>3331901</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.9128672494574772</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.9022672510724759</v>
+        <v>0.9034558082533062</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.9219552560880886</v>
+        <v>0.9226589360736709</v>
       </c>
     </row>
     <row r="39">
@@ -3445,7 +3445,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>5005</v>
+        <v>4634</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.001213616394134444</v>
@@ -3454,7 +3454,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.006649146619990546</v>
+        <v>0.006156081528827733</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>2</v>
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>5996</v>
+        <v>7032</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.001808527917439361</v>
@@ -3475,7 +3475,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.005435239138456865</v>
+        <v>0.006374275292308492</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>3</v>
@@ -3484,19 +3484,19 @@
         <v>2909</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>7762</v>
+        <v>8674</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.00156724662480591</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.0004929306675648455</v>
+        <v>0.0004923038370396801</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.004182032376381721</v>
+        <v>0.004673732744722148</v>
       </c>
     </row>
     <row r="6">
@@ -3560,19 +3560,19 @@
         <v>19074</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>12032</v>
+        <v>11885</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>28525</v>
+        <v>28790</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02533977543164539</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.0159842939801056</v>
+        <v>0.01578837329015592</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03789537210906999</v>
+        <v>0.03824697805020574</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>17</v>
@@ -3581,19 +3581,19 @@
         <v>18544</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>10648</v>
+        <v>11540</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>28777</v>
+        <v>29694</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01680890464203874</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.009651868021977872</v>
+        <v>0.01046004799060164</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02608386751746637</v>
+        <v>0.02691515207231422</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>36</v>
@@ -3602,19 +3602,19 @@
         <v>37619</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>27032</v>
+        <v>26511</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>51658</v>
+        <v>51407</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02026881330201986</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0145648044099128</v>
+        <v>0.01428420402816358</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02783343155768866</v>
+        <v>0.02769791966462838</v>
       </c>
     </row>
     <row r="8">
@@ -3631,19 +3631,19 @@
         <v>14904</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>8418</v>
+        <v>8105</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>24346</v>
+        <v>25527</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.01979956739883543</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.01118296960688817</v>
+        <v>0.01076784473790548</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.03234331662755052</v>
+        <v>0.0339121270480137</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>11</v>
@@ -3652,19 +3652,19 @@
         <v>12895</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>6704</v>
+        <v>6794</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>22603</v>
+        <v>23275</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.01168820038196926</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.006076957321383752</v>
+        <v>0.006158362619670895</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.0204874125739274</v>
+        <v>0.02109701349107987</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>23</v>
@@ -3673,19 +3673,19 @@
         <v>27799</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>18341</v>
+        <v>17897</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>40867</v>
+        <v>39680</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.01497796876295707</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.009881857993575348</v>
+        <v>0.009642834377499902</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.02201903745463842</v>
+        <v>0.02137964080445501</v>
       </c>
     </row>
     <row r="9">
@@ -3702,19 +3702,19 @@
         <v>13289</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>7358</v>
+        <v>7500</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>23403</v>
+        <v>23061</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.01765432826897618</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.009775206504769519</v>
+        <v>0.009963841205020536</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.03109080421568192</v>
+        <v>0.03063562952992493</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>10</v>
@@ -3723,19 +3723,19 @@
         <v>10065</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>4974</v>
+        <v>5014</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>18320</v>
+        <v>18710</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.009122833048653018</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.004508900245739289</v>
+        <v>0.00454466816622185</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.01660574465426083</v>
+        <v>0.01695920401232261</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>23</v>
@@ -3744,19 +3744,19 @@
         <v>23354</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>15622</v>
+        <v>15571</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>34115</v>
+        <v>34551</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.01258299496217611</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.008417176157440209</v>
+        <v>0.008389634997287386</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.01838098052636865</v>
+        <v>0.01861574826835941</v>
       </c>
     </row>
     <row r="10">
@@ -3776,7 +3776,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>7488</v>
+        <v>7198</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.002915122727375236</v>
@@ -3785,7 +3785,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.009946990897662088</v>
+        <v>0.009562504545908708</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>8</v>
@@ -3794,19 +3794,19 @@
         <v>8461</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>3270</v>
+        <v>4204</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>16203</v>
+        <v>16341</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.007668832106993659</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.002964245500826352</v>
+        <v>0.003810183306457742</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01468639666542624</v>
+        <v>0.01481138646422615</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>10</v>
@@ -3815,19 +3815,19 @@
         <v>10655</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>5104</v>
+        <v>5379</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>18118</v>
+        <v>19280</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.005740846013286382</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.002750233554932009</v>
+        <v>0.002898235535025875</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.009761793668041344</v>
+        <v>0.01038775763878807</v>
       </c>
     </row>
     <row r="11">
@@ -3844,19 +3844,19 @@
         <v>702366</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>685603</v>
+        <v>686152</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>714772</v>
+        <v>716424</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9330775897790333</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.910808398533242</v>
+        <v>0.9115373068668415</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9495594121118837</v>
+        <v>0.9517530302040744</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>979</v>
@@ -3865,19 +3865,19 @@
         <v>1051283</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>1035167</v>
+        <v>1035328</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>1064972</v>
+        <v>1062977</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9529027019029059</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9382949366518417</v>
+        <v>0.9384404804876935</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9653102665102408</v>
+        <v>0.963502068531161</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1625</v>
@@ -3886,19 +3886,19 @@
         <v>1753649</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1731608</v>
+        <v>1731324</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1772274</v>
+        <v>1771784</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9448621303347546</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9329865741012442</v>
+        <v>0.9328336411874089</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9548972022541341</v>
+        <v>0.9546330201704046</v>
       </c>
     </row>
     <row r="12">
@@ -3990,19 +3990,19 @@
         <v>3019</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>925</v>
+        <v>940</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>8134</v>
+        <v>8694</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.003687602763274972</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.00113012904755691</v>
+        <v>0.001148638226980093</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.009935141796317709</v>
+        <v>0.01061931220099431</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>5</v>
@@ -4011,19 +4011,19 @@
         <v>4972</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1929</v>
+        <v>1974</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>11490</v>
+        <v>10946</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.005644834895715376</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.002190543855225008</v>
+        <v>0.002241437604971938</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.01304553609341169</v>
+        <v>0.0124275389768053</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>8</v>
@@ -4032,19 +4032,19 @@
         <v>7991</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>3069</v>
+        <v>3979</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>15121</v>
+        <v>15641</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.004701965093902975</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.001806085262518307</v>
+        <v>0.002341412588021453</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.008897508583985336</v>
+        <v>0.00920314543878154</v>
       </c>
     </row>
     <row r="14">
@@ -4061,19 +4061,19 @@
         <v>6102</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2122</v>
+        <v>2124</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>13248</v>
+        <v>12971</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.007453068813588225</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.002591379413487825</v>
+        <v>0.002593877071844746</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.01618135290524195</v>
+        <v>0.01584281569797861</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1</v>
@@ -4085,7 +4085,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>6249</v>
+        <v>7598</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.001417343124975106</v>
@@ -4094,7 +4094,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.007094597875320326</v>
+        <v>0.008626626257764969</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>7</v>
@@ -4103,19 +4103,19 @@
         <v>7350</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>3113</v>
+        <v>2846</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>14570</v>
+        <v>13923</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.004324971397315436</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.001831594953552604</v>
+        <v>0.001674884695763285</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.008572926997206774</v>
+        <v>0.008192632433675687</v>
       </c>
     </row>
     <row r="15">
@@ -4135,7 +4135,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>3898</v>
+        <v>4574</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.00109558843561547</v>
@@ -4144,7 +4144,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.004761114401977605</v>
+        <v>0.005586799625403192</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>0</v>
@@ -4169,7 +4169,7 @@
         <v>0</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>4542</v>
+        <v>3615</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.0005277847394977668</v>
@@ -4178,7 +4178,7 @@
         <v>0</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.002672492060349797</v>
+        <v>0.002127388369110903</v>
       </c>
     </row>
     <row r="16">
@@ -4195,19 +4195,19 @@
         <v>42612</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>30854</v>
+        <v>30691</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>57258</v>
+        <v>57251</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.05204719221127316</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03768650643171551</v>
+        <v>0.03748738066939729</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.06993696732829499</v>
+        <v>0.06992860848226717</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>62</v>
@@ -4216,19 +4216,19 @@
         <v>69399</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>54515</v>
+        <v>53356</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>88519</v>
+        <v>87547</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.0787914042827676</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.06189316710694101</v>
+        <v>0.06057797282929054</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1004999863790722</v>
+        <v>0.09939636149140563</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>103</v>
@@ -4237,19 +4237,19 @@
         <v>112010</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>92779</v>
+        <v>92424</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>136934</v>
+        <v>135522</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.06590774601989334</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.05459200365080326</v>
+        <v>0.05438328199682622</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.08057332042172423</v>
+        <v>0.07974252621137787</v>
       </c>
     </row>
     <row r="17">
@@ -4266,19 +4266,19 @@
         <v>25962</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>16476</v>
+        <v>16539</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>37556</v>
+        <v>39222</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.03171042948029271</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.02012398472845026</v>
+        <v>0.02020154499643301</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.04587191771304527</v>
+        <v>0.04790727781839042</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>11</v>
@@ -4287,19 +4287,19 @@
         <v>11170</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>6014</v>
+        <v>5911</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>20791</v>
+        <v>19256</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.01268166309283902</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.006828510484305187</v>
+        <v>0.006711269230100121</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.02360531061599523</v>
+        <v>0.0218618782390804</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>33</v>
@@ -4308,19 +4308,19 @@
         <v>37132</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>25540</v>
+        <v>25862</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>50452</v>
+        <v>51654</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.02184851095676722</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.01502789346779549</v>
+        <v>0.01521740285261584</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.02968655383877251</v>
+        <v>0.03039348540884214</v>
       </c>
     </row>
     <row r="18">
@@ -4337,19 +4337,19 @@
         <v>37282</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>27054</v>
+        <v>27129</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>50841</v>
+        <v>49866</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.0455374520772036</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.03304483927001715</v>
+        <v>0.03313639805294835</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.0620989938143227</v>
+        <v>0.06090859170816378</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>48</v>
@@ -4358,19 +4358,19 @@
         <v>51552</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>38699</v>
+        <v>38386</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>67647</v>
+        <v>66757</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.05852935507684186</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.04393706767424627</v>
+        <v>0.04358188065164499</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.07680270264600052</v>
+        <v>0.07579267564409178</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>86</v>
@@ -4379,19 +4379,19 @@
         <v>88834</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>71781</v>
+        <v>70894</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>109573</v>
+        <v>109777</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.05227068355627921</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.04223666289860684</v>
+        <v>0.04171483512741817</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.06447364601279322</v>
+        <v>0.06459367813560758</v>
       </c>
     </row>
     <row r="19">
@@ -4408,19 +4408,19 @@
         <v>13480</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>7710</v>
+        <v>7740</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>21542</v>
+        <v>22063</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01646443074722037</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.009417119178767233</v>
+        <v>0.00945367345991043</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.02631171823817203</v>
+        <v>0.02694834890914569</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>33</v>
@@ -4429,19 +4429,19 @@
         <v>35007</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>24013</v>
+        <v>23860</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>47582</v>
+        <v>49004</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.03974495328793356</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.02726276623095875</v>
+        <v>0.02708902536196022</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.05402194075722681</v>
+        <v>0.05563626610147093</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>47</v>
@@ -4450,19 +4450,19 @@
         <v>48486</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>35436</v>
+        <v>36213</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>63578</v>
+        <v>64107</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.02852988006783366</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.02085079372235436</v>
+        <v>0.0213080160168936</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.03740976764886964</v>
+        <v>0.03772092655608287</v>
       </c>
     </row>
     <row r="20">
@@ -4479,19 +4479,19 @@
         <v>689357</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>665263</v>
+        <v>667980</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>708709</v>
+        <v>709632</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8420042354715315</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8125740785244574</v>
+        <v>0.8158934254747665</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8656409150033879</v>
+        <v>0.8667686584403906</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>651</v>
@@ -4500,19 +4500,19 @@
         <v>707441</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>681251</v>
+        <v>682512</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>729915</v>
+        <v>732269</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8031904462389274</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7734557738027642</v>
+        <v>0.7748879458463527</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8287072782489916</v>
+        <v>0.8313797889492884</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1286</v>
@@ -4521,19 +4521,19 @@
         <v>1396798</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1364677</v>
+        <v>1362719</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1428968</v>
+        <v>1427869</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8218884581685104</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8029883446699045</v>
+        <v>0.801836147917953</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.840817857872673</v>
+        <v>0.8401709457815707</v>
       </c>
     </row>
     <row r="21">
@@ -4628,7 +4628,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>4720</v>
+        <v>4802</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.006116744931219536</v>
@@ -4637,7 +4637,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.03104902865628774</v>
+        <v>0.03158550563789904</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1</v>
@@ -4649,7 +4649,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>7370</v>
+        <v>7289</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01008602804341414</v>
@@ -4658,7 +4658,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.04109491087601145</v>
+        <v>0.04064448831915996</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>2</v>
@@ -4670,7 +4670,7 @@
         <v>0</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>9618</v>
+        <v>10520</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.008264943901801347</v>
@@ -4679,7 +4679,7 @@
         <v>0</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02902715494535528</v>
+        <v>0.03174972842789138</v>
       </c>
     </row>
     <row r="23">
@@ -4790,19 +4790,19 @@
         <v>4970</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1922</v>
+        <v>1920</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>10897</v>
+        <v>10214</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.03269523303558357</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01264596720031516</v>
+        <v>0.01263218433635577</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.07168110094145838</v>
+        <v>0.06718515336020021</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>15</v>
@@ -4811,19 +4811,19 @@
         <v>16033</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>9323</v>
+        <v>8965</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>26129</v>
+        <v>25414</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.0894067983090094</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.05198744797166627</v>
+        <v>0.04999050045588472</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1457040673885724</v>
+        <v>0.1417154316849155</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>20</v>
@@ -4832,19 +4832,19 @@
         <v>21004</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>13288</v>
+        <v>12646</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>32069</v>
+        <v>31282</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.06338786006593372</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.04010158640412124</v>
+        <v>0.03816320201852648</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.09678109960083192</v>
+        <v>0.09440596645867705</v>
       </c>
     </row>
     <row r="26">
@@ -4861,19 +4861,19 @@
         <v>7914</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3150</v>
+        <v>3378</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>15555</v>
+        <v>15432</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.05205700139853271</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.0207222052609874</v>
+        <v>0.0222184077774391</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1023200965024898</v>
+        <v>0.1015130905106247</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>4</v>
@@ -4882,19 +4882,19 @@
         <v>5961</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1929</v>
+        <v>1877</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>14483</v>
+        <v>15996</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.03323804580096798</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.01075454979540028</v>
+        <v>0.01046793900139073</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.08076277104100274</v>
+        <v>0.08919754354318661</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>11</v>
@@ -4903,19 +4903,19 @@
         <v>13874</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>7236</v>
+        <v>7001</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>24257</v>
+        <v>23843</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.04187207381855934</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.02183647466516035</v>
+        <v>0.02112750783957563</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.07320623852236514</v>
+        <v>0.07195652757781534</v>
       </c>
     </row>
     <row r="27">
@@ -4932,19 +4932,19 @@
         <v>9584</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>4559</v>
+        <v>4688</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>20265</v>
+        <v>19459</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.06304047970069768</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.02998926016805165</v>
+        <v>0.03083631936416816</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1333021232545399</v>
+        <v>0.1279970882979154</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>13</v>
@@ -4953,19 +4953,19 @@
         <v>13664</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>7362</v>
+        <v>7806</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>23362</v>
+        <v>23098</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.07619498098819001</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.0410508227205695</v>
+        <v>0.04353094764771194</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.1302703550507476</v>
+        <v>0.1287981840958297</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>21</v>
@@ -4974,19 +4974,19 @@
         <v>23248</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>14552</v>
+        <v>15400</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>35032</v>
+        <v>36829</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.07015977185637465</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.04391786123167037</v>
+        <v>0.04647522847974837</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.1057246148312316</v>
+        <v>0.1111479217177747</v>
       </c>
     </row>
     <row r="28">
@@ -5003,19 +5003,19 @@
         <v>4883</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1798</v>
+        <v>1881</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>10704</v>
+        <v>10204</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.03211788519430012</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.01182575036688884</v>
+        <v>0.01237194940133712</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.07040725924494276</v>
+        <v>0.06712411067218425</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>16</v>
@@ -5024,19 +5024,19 @@
         <v>17039</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>9762</v>
+        <v>9726</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>26375</v>
+        <v>25833</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.09501670360576449</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.05443826672786015</v>
+        <v>0.05423673014473439</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1470716798570618</v>
+        <v>0.1440522862197662</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>21</v>
@@ -5045,19 +5045,19 @@
         <v>21922</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>13266</v>
+        <v>14037</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>31369</v>
+        <v>33531</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.06615908939744727</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.04003678335102955</v>
+        <v>0.04236356035463446</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.09466784118444728</v>
+        <v>0.1011949794974873</v>
       </c>
     </row>
     <row r="29">
@@ -5074,19 +5074,19 @@
         <v>123743</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>111531</v>
+        <v>111291</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>132565</v>
+        <v>133336</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.8139726557396664</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.7336442812187011</v>
+        <v>0.7320683659880541</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.8720041779291515</v>
+        <v>0.8770772273406999</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>108</v>
@@ -5095,19 +5095,19 @@
         <v>124825</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>111367</v>
+        <v>111314</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>137302</v>
+        <v>137630</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.696057443252654</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.6210111040777669</v>
+        <v>0.6207163952301481</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.7656352599226951</v>
+        <v>0.7674652323953142</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>216</v>
@@ -5116,19 +5116,19 @@
         <v>248567</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>232788</v>
+        <v>231089</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>264973</v>
+        <v>264303</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.7501562609598836</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.7025364980140801</v>
+        <v>0.6974071610319494</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.7996683704525344</v>
+        <v>0.7976466790571801</v>
       </c>
     </row>
     <row r="30">
@@ -5220,19 +5220,19 @@
         <v>3949</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>1030</v>
+        <v>1026</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>8954</v>
+        <v>9027</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.002291281476631624</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.0005977605872779727</v>
+        <v>0.000595532709402865</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.005195247112656524</v>
+        <v>0.005237882278817922</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>6</v>
@@ -5241,19 +5241,19 @@
         <v>6781</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>2849</v>
+        <v>2815</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>15142</v>
+        <v>14479</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.003134305408600873</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.001317093404707669</v>
+        <v>0.001301422409417223</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.00699925373868065</v>
+        <v>0.006693042632458082</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>10</v>
@@ -5262,19 +5262,19 @@
         <v>10730</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>4921</v>
+        <v>5118</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>19233</v>
+        <v>18690</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.002760497540433669</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.001266144876976003</v>
+        <v>0.001316690845489007</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.004948197616231495</v>
+        <v>0.004808432230581854</v>
       </c>
     </row>
     <row r="32">
@@ -5291,19 +5291,19 @@
         <v>7015</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>3095</v>
+        <v>2995</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>14953</v>
+        <v>13706</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.004070522038484048</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.001795597432005257</v>
+        <v>0.001737508149717789</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.008675979971540626</v>
+        <v>0.00795282420865972</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>3</v>
@@ -5312,19 +5312,19 @@
         <v>3244</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>0</v>
+        <v>995</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>8957</v>
+        <v>9127</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.001499344597442314</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0</v>
+        <v>0.0004598514361575534</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.004140256865766135</v>
+        <v>0.004218863205005099</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>10</v>
@@ -5333,19 +5333,19 @@
         <v>10259</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>5043</v>
+        <v>5192</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>19557</v>
+        <v>18242</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.002639438397235506</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.001297510895639229</v>
+        <v>0.001335864074773145</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.005031659465250392</v>
+        <v>0.004693168415194147</v>
       </c>
     </row>
     <row r="33">
@@ -5365,7 +5365,7 @@
         <v>0</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>5907</v>
+        <v>5463</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.0005204423965758078</v>
@@ -5374,7 +5374,7 @@
         <v>0</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.003427309159762351</v>
+        <v>0.00316999802974998</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>0</v>
@@ -5399,7 +5399,7 @@
         <v>0</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>4267</v>
+        <v>5239</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.0002307709845358575</v>
@@ -5408,7 +5408,7 @@
         <v>0</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.001097840214219372</v>
+        <v>0.001348004048552789</v>
       </c>
     </row>
     <row r="34">
@@ -5425,19 +5425,19 @@
         <v>66656</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>53219</v>
+        <v>52374</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>85110</v>
+        <v>84398</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.03867552839820702</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.03087876372542045</v>
+        <v>0.03038838550143332</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.0493827403089489</v>
+        <v>0.0489697172566059</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>94</v>
@@ -5446,19 +5446,19 @@
         <v>103976</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>84446</v>
+        <v>85115</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>126789</v>
+        <v>126857</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.04806232957940687</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.03903444858376533</v>
+        <v>0.03934375816470148</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.05860726569101565</v>
+        <v>0.0586387315960638</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>159</v>
@@ -5467,19 +5467,19 @@
         <v>170632</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>144552</v>
+        <v>145800</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>197603</v>
+        <v>200006</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.04390009882249676</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.03719016415270313</v>
+        <v>0.03751125882062901</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.05083903713793479</v>
+        <v>0.05145720037983886</v>
       </c>
     </row>
     <row r="35">
@@ -5496,19 +5496,19 @@
         <v>48779</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>35864</v>
+        <v>35107</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>65537</v>
+        <v>65681</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.02830298565091476</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.02080885524411132</v>
+        <v>0.02036963074440576</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.03802587231534291</v>
+        <v>0.03810969798927524</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>26</v>
@@ -5517,19 +5517,19 @@
         <v>30025</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>19414</v>
+        <v>20064</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>43063</v>
+        <v>42938</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.01387903989111197</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.008974105803839987</v>
+        <v>0.009274349723214639</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.01990580982979086</v>
+        <v>0.01984766385361109</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>67</v>
@@ -5538,19 +5538,19 @@
         <v>78805</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>62243</v>
+        <v>61374</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>99166</v>
+        <v>100066</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.02027480661915302</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.01601381236828165</v>
+        <v>0.01579018967656306</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.02551325912280217</v>
+        <v>0.02574493120204098</v>
       </c>
     </row>
     <row r="36">
@@ -5567,19 +5567,19 @@
         <v>60155</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>46048</v>
+        <v>46622</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>79209</v>
+        <v>78193</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.03490317425315317</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.02671791096557351</v>
+        <v>0.02705094382355053</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.04595890996493644</v>
+        <v>0.04536914827840081</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>71</v>
@@ -5588,19 +5588,19 @@
         <v>75281</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>59086</v>
+        <v>58978</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>94656</v>
+        <v>93960</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.03479803956173172</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.02731204499521412</v>
+        <v>0.02726200617028695</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.04375402377082437</v>
+        <v>0.0434325015644627</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>130</v>
@@ -5609,19 +5609,19 @@
         <v>135435</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>112347</v>
+        <v>115606</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>160819</v>
+        <v>161573</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.03484465766280848</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.02890443035171041</v>
+        <v>0.02974300523352839</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.04137517660024099</v>
+        <v>0.04156926363894543</v>
       </c>
     </row>
     <row r="37">
@@ -5638,19 +5638,19 @@
         <v>20557</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>12797</v>
+        <v>13460</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>30558</v>
+        <v>30932</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.01192741459759039</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.007425225735015212</v>
+        <v>0.007809771635913522</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.01773031651786979</v>
+        <v>0.01794730139940913</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>57</v>
@@ -5659,19 +5659,19 @@
         <v>60507</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>45995</v>
+        <v>45876</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>78749</v>
+        <v>79754</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.02796891001429388</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.0212610353562562</v>
+        <v>0.0212058371418494</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.03640120387847074</v>
+        <v>0.0368655762025711</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>78</v>
@@ -5680,19 +5680,19 @@
         <v>81063</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>63819</v>
+        <v>64651</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>100133</v>
+        <v>100035</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.02085590055331141</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.01641921650023677</v>
+        <v>0.0166334279063078</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.02576218232744105</v>
+        <v>0.0257368635140386</v>
       </c>
     </row>
     <row r="38">
@@ -5709,19 +5709,19 @@
         <v>1515466</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>1487225</v>
+        <v>1486014</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>1543140</v>
+        <v>1541842</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.8793086511884431</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.8629229716748739</v>
+        <v>0.8622202662058431</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.8953662208414339</v>
+        <v>0.8946130619407903</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>1738</v>
@@ -5730,19 +5730,19 @@
         <v>1883548</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>1852394</v>
+        <v>1852852</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>1914058</v>
+        <v>1915825</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.8706580309474123</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.8562572738770408</v>
+        <v>0.8564688569312096</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.8847606316539464</v>
+        <v>0.8855774210568922</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>3127</v>
@@ -5751,19 +5751,19 @@
         <v>3399014</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>3353563</v>
+        <v>3351068</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>3444298</v>
+        <v>3439006</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.8744938294200253</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.862800220892379</v>
+        <v>0.8621583626760571</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.886144381852538</v>
+        <v>0.8847829223562736</v>
       </c>
     </row>
     <row r="39">
@@ -6157,7 +6157,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>7226</v>
+        <v>6366</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.002384383076447675</v>
@@ -6166,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.008338380512183217</v>
+        <v>0.007345729526866066</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2</v>
@@ -6178,7 +6178,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>7376</v>
+        <v>7182</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.001421801802411138</v>
@@ -6187,7 +6187,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.00507528497805276</v>
+        <v>0.004941708615297977</v>
       </c>
     </row>
     <row r="6">
@@ -6251,19 +6251,19 @@
         <v>2860</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>7820</v>
+        <v>8572</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.004875216643701448</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.001484294611181852</v>
+        <v>0.001481839079382449</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.013327669469047</v>
+        <v>0.01461047109594448</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>3</v>
@@ -6272,19 +6272,19 @@
         <v>2875</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>898</v>
+        <v>902</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>8504</v>
+        <v>6866</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.003317905707769422</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.001036326080177183</v>
+        <v>0.0010412659581675</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.009812452852900645</v>
+        <v>0.007922151884581643</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>6</v>
@@ -6293,19 +6293,19 @@
         <v>5736</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1921</v>
+        <v>2013</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>11548</v>
+        <v>12506</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.003946595937786401</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.001321930511560233</v>
+        <v>0.001384883839858893</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.007945977140738192</v>
+        <v>0.008604924981805732</v>
       </c>
     </row>
     <row r="8">
@@ -6322,19 +6322,19 @@
         <v>7724</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2680</v>
+        <v>3517</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>16339</v>
+        <v>16124</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.01316473050772166</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.004567528706816973</v>
+        <v>0.005993945870272413</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.02784832330947446</v>
+        <v>0.02748191476999224</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>7</v>
@@ -6343,19 +6343,19 @@
         <v>7023</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>2959</v>
+        <v>2974</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>13409</v>
+        <v>14204</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.008104356100153656</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.003414414757042025</v>
+        <v>0.003431930003893712</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.01547257135728605</v>
+        <v>0.01638983723299889</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>13</v>
@@ -6364,19 +6364,19 @@
         <v>14748</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>8129</v>
+        <v>8295</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>23281</v>
+        <v>23936</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.01014724161316262</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.00559339372520635</v>
+        <v>0.005707653421469586</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.01601859445177952</v>
+        <v>0.01646986723290445</v>
       </c>
     </row>
     <row r="9">
@@ -6396,7 +6396,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>5873</v>
+        <v>5900</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.003315679651503392</v>
@@ -6405,7 +6405,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.01001058485580723</v>
+        <v>0.01005504476511747</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>6</v>
@@ -6414,19 +6414,19 @@
         <v>6619</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>2116</v>
+        <v>2124</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>13288</v>
+        <v>14495</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.007637559816891124</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.002441726450024836</v>
+        <v>0.002450402332118207</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.01533247517716261</v>
+        <v>0.01672527935311262</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>8</v>
@@ -6435,19 +6435,19 @@
         <v>8564</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>3847</v>
+        <v>3920</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>16575</v>
+        <v>16631</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.005892806233909779</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.002647102051006601</v>
+        <v>0.002697030476758451</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.01140500578992946</v>
+        <v>0.01144328824688339</v>
       </c>
     </row>
     <row r="10">
@@ -6467,7 +6467,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>6560</v>
+        <v>6546</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.00317864607191251</v>
@@ -6476,7 +6476,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01118159546428205</v>
+        <v>0.0111573008986657</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>6</v>
@@ -6485,19 +6485,19 @@
         <v>6137</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>2239</v>
+        <v>2598</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>12417</v>
+        <v>12956</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.007081976109540414</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.002583448465784346</v>
+        <v>0.002997950962084819</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01432816949741009</v>
+        <v>0.01495027232042897</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>8</v>
@@ -6506,19 +6506,19 @@
         <v>8002</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>3920</v>
+        <v>3829</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>15814</v>
+        <v>15553</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.00550619223583391</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.002697504359714854</v>
+        <v>0.002634368480611324</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0108810100791482</v>
+        <v>0.01070118275369936</v>
       </c>
     </row>
     <row r="11">
@@ -6535,19 +6535,19 @@
         <v>572326</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>562200</v>
+        <v>562488</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>578713</v>
+        <v>578196</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.975465727125161</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9582064239133926</v>
+        <v>0.9586968515897804</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9863507166522453</v>
+        <v>0.9854698958723526</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>738</v>
@@ -6556,19 +6556,19 @@
         <v>841907</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>831715</v>
+        <v>830353</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>851162</v>
+        <v>849837</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9714738191891977</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9597132870474394</v>
+        <v>0.9581417644148965</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9821525436315272</v>
+        <v>0.9806242970704573</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1327</v>
@@ -6577,19 +6577,19 @@
         <v>1414235</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1399903</v>
+        <v>1401050</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1425647</v>
+        <v>1425308</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9730853621768961</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9632242616987505</v>
+        <v>0.9640138449972206</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9809378388682335</v>
+        <v>0.9807043680236072</v>
       </c>
     </row>
     <row r="12">
@@ -6728,19 +6728,19 @@
         <v>4277</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1439</v>
+        <v>1444</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>10397</v>
+        <v>11787</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.004299821381727068</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.001446841308078155</v>
+        <v>0.001451450879481365</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.01045273371936764</v>
+        <v>0.01184957420769348</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3</v>
@@ -6749,19 +6749,19 @@
         <v>3037</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>8300</v>
+        <v>8009</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.002926709226099268</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.0009387167833457613</v>
+        <v>0.0009395728717996975</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.007997570131738787</v>
+        <v>0.007717260957584563</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>7</v>
@@ -6770,19 +6770,19 @@
         <v>7314</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>3031</v>
+        <v>2999</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>14454</v>
+        <v>15511</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.003598709725926044</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.001491129966322179</v>
+        <v>0.001475769504713373</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.007111747434752397</v>
+        <v>0.007631668264590484</v>
       </c>
     </row>
     <row r="15">
@@ -6802,7 +6802,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>4872</v>
+        <v>4882</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.0009794746051976354</v>
@@ -6811,7 +6811,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.004897807123402152</v>
+        <v>0.004908286592560766</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>0</v>
@@ -6836,7 +6836,7 @@
         <v>0</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>4889</v>
+        <v>4874</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.0004793544515375046</v>
@@ -6845,7 +6845,7 @@
         <v>0</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.002405277518002678</v>
+        <v>0.002398154525867422</v>
       </c>
     </row>
     <row r="16">
@@ -6862,19 +6862,19 @@
         <v>21957</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>13859</v>
+        <v>13490</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>33715</v>
+        <v>34353</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02207467372760344</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01393338435276536</v>
+        <v>0.01356249381196379</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03389482507207254</v>
+        <v>0.03453660646113862</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>27</v>
@@ -6883,19 +6883,19 @@
         <v>28255</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>18953</v>
+        <v>19344</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>40794</v>
+        <v>40332</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02722675266156399</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01826286510793523</v>
+        <v>0.01863967671528913</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03930868335890055</v>
+        <v>0.03886408878792542</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>46</v>
@@ -6904,19 +6904,19 @@
         <v>50213</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>36862</v>
+        <v>37416</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>65270</v>
+        <v>66439</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02470532744179704</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01813685161504026</v>
+        <v>0.01840921944149752</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03211396415030183</v>
+        <v>0.03268912497600947</v>
       </c>
     </row>
     <row r="17">
@@ -6933,19 +6933,19 @@
         <v>16379</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>9246</v>
+        <v>9272</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>25878</v>
+        <v>26176</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.0164660989513995</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.009295151182865637</v>
+        <v>0.009321072231780076</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.02601664654540228</v>
+        <v>0.02631598679537416</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>15</v>
@@ -6954,19 +6954,19 @@
         <v>16518</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>9343</v>
+        <v>9608</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>26739</v>
+        <v>27297</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.01591674411716429</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.00900333107402105</v>
+        <v>0.009258585118992862</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.02576593260719402</v>
+        <v>0.02630381879764835</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>30</v>
@@ -6975,19 +6975,19 @@
         <v>32897</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>22270</v>
+        <v>22115</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>46306</v>
+        <v>47141</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.01618559813733683</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.01095739546761918</v>
+        <v>0.01088112464691666</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.02278321684543188</v>
+        <v>0.02319407098599449</v>
       </c>
     </row>
     <row r="18">
@@ -7004,19 +7004,19 @@
         <v>41327</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>28979</v>
+        <v>29333</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>56554</v>
+        <v>57185</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.04154767224400421</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.02913340320107685</v>
+        <v>0.02948985262706983</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.05685612435322394</v>
+        <v>0.05749035804419834</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>30</v>
@@ -7025,19 +7025,19 @@
         <v>29424</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>19937</v>
+        <v>20018</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>40955</v>
+        <v>41755</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.02835330914677698</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.01921125600894476</v>
+        <v>0.01928938170913559</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.03946466112033432</v>
+        <v>0.04023520476082282</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>67</v>
@@ -7046,19 +7046,19 @@
         <v>70751</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>56060</v>
+        <v>55982</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>87827</v>
+        <v>89390</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.03481062478548295</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.02758253095797186</v>
+        <v>0.02754407173751691</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.04321195663660704</v>
+        <v>0.04398098334644632</v>
       </c>
     </row>
     <row r="19">
@@ -7075,19 +7075,19 @@
         <v>7877</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>3350</v>
+        <v>3381</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>16268</v>
+        <v>14762</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.007919237808864148</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.003368397808652951</v>
+        <v>0.003399379450098979</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.01635518749281589</v>
+        <v>0.01484073308913162</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>29</v>
@@ -7096,19 +7096,19 @@
         <v>27087</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>18777</v>
+        <v>18742</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>38524</v>
+        <v>37279</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.02610126905166514</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.0180936836968423</v>
+        <v>0.01805932258337251</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.03712174471358386</v>
+        <v>0.03592163454986944</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>36</v>
@@ -7117,19 +7117,19 @@
         <v>34964</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>24731</v>
+        <v>24435</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>47188</v>
+        <v>47984</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01720299076248782</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01216807405127607</v>
+        <v>0.01202241714286703</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.02321713567670701</v>
+        <v>0.02360879175689431</v>
       </c>
     </row>
     <row r="20">
@@ -7146,19 +7146,19 @@
         <v>901894</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>882109</v>
+        <v>881299</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>919826</v>
+        <v>920385</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.906713021281204</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8868224789694802</v>
+        <v>0.8860084876189772</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9247408757533057</v>
+        <v>0.9253031489084643</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>851</v>
@@ -7167,19 +7167,19 @@
         <v>933453</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>913331</v>
+        <v>912370</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>952822</v>
+        <v>951684</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8994752157967303</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8800856573059442</v>
+        <v>0.8791600288220217</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9181394262671758</v>
+        <v>0.9170423038914005</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1694</v>
@@ -7188,19 +7188,19 @@
         <v>1835347</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1807452</v>
+        <v>1804833</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1861033</v>
+        <v>1860888</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9030173946954319</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8892926189255479</v>
+        <v>0.888004192607751</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9156556194402037</v>
+        <v>0.9155838574683086</v>
       </c>
     </row>
     <row r="21">
@@ -7433,19 +7433,19 @@
         <v>6311</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>2939</v>
+        <v>2408</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>13651</v>
+        <v>13053</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.02778625657629754</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01294042610473786</v>
+        <v>0.01060365252740092</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.06010833961402535</v>
+        <v>0.05747266367590858</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>16</v>
@@ -7454,19 +7454,19 @@
         <v>16519</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>9934</v>
+        <v>9682</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>25999</v>
+        <v>25565</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.07165138314043649</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.04308988318309466</v>
+        <v>0.04199722240420845</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.112773460490547</v>
+        <v>0.1108893997270674</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>22</v>
@@ -7475,19 +7475,19 @@
         <v>22829</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>15091</v>
+        <v>14406</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>33608</v>
+        <v>34954</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.0498831170524433</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.03297438992803457</v>
+        <v>0.03147876987343379</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.07343401087860321</v>
+        <v>0.07637626661842008</v>
       </c>
     </row>
     <row r="26">
@@ -7504,19 +7504,19 @@
         <v>4970</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1296</v>
+        <v>1288</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>12173</v>
+        <v>12231</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.0218841511282538</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.005705090942491217</v>
+        <v>0.005672864477358112</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.05360035294156329</v>
+        <v>0.05385313772288578</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2</v>
@@ -7528,7 +7528,7 @@
         <v>0</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>6779</v>
+        <v>6421</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.00852979262166784</v>
@@ -7537,7 +7537,7 @@
         <v>0</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.02940508164181259</v>
+        <v>0.02785359820022801</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6</v>
@@ -7546,19 +7546,19 @@
         <v>6937</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>2758</v>
+        <v>2640</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>15670</v>
+        <v>14994</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.01515695301480519</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.006026303176307026</v>
+        <v>0.005768615014670957</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.03423948068640736</v>
+        <v>0.03276252616296487</v>
       </c>
     </row>
     <row r="27">
@@ -7575,19 +7575,19 @@
         <v>11490</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>5967</v>
+        <v>5461</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>19241</v>
+        <v>19636</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.05059135815624118</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.02627103947746541</v>
+        <v>0.02404472810065969</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.08472026330845284</v>
+        <v>0.08646041949657318</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>15</v>
@@ -7596,19 +7596,19 @@
         <v>15454</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>9035</v>
+        <v>8674</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>24545</v>
+        <v>23793</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.06703205453687339</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.03919211007663277</v>
+        <v>0.03762380442076344</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.1064679005064668</v>
+        <v>0.1032044881039806</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>26</v>
@@ -7617,19 +7617,19 @@
         <v>26944</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>18065</v>
+        <v>18436</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>38690</v>
+        <v>39911</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.05887328511072769</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.03947373685349102</v>
+        <v>0.04028298297970417</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.08453976559976506</v>
+        <v>0.08720848590103256</v>
       </c>
     </row>
     <row r="28">
@@ -7646,19 +7646,19 @@
         <v>4158</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1076</v>
+        <v>1086</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>12124</v>
+        <v>11286</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.01830931153779702</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.004738426343278469</v>
+        <v>0.004783062228502923</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.05338365566383798</v>
+        <v>0.04969199423823033</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>12</v>
@@ -7667,19 +7667,19 @@
         <v>12629</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>7016</v>
+        <v>6873</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>21573</v>
+        <v>23473</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.05478143957571544</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.03043055594377772</v>
+        <v>0.02981303156606307</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.09357610621078306</v>
+        <v>0.1018184786687951</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>15</v>
@@ -7688,19 +7688,19 @@
         <v>16788</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>9845</v>
+        <v>9453</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>27651</v>
+        <v>28046</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.03668198221375195</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.02151163401508732</v>
+        <v>0.02065586894814227</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.06041876597582962</v>
+        <v>0.06128258180412947</v>
       </c>
     </row>
     <row r="29">
@@ -7717,19 +7717,19 @@
         <v>200185</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>189373</v>
+        <v>189330</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>209099</v>
+        <v>209627</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.8814289226014105</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.8338243210990921</v>
+        <v>0.8336332083148813</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9206780930449577</v>
+        <v>0.9230036624762451</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>167</v>
@@ -7738,19 +7738,19 @@
         <v>183974</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>170580</v>
+        <v>170882</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>195504</v>
+        <v>194461</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.7980053301253068</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.739906522288189</v>
+        <v>0.7412192824188402</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.8480194990710656</v>
+        <v>0.8434936582432123</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>349</v>
@@ -7759,19 +7759,19 @@
         <v>384159</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>366174</v>
+        <v>365986</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>398505</v>
+        <v>397498</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.8394046626082718</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.800108408903733</v>
+        <v>0.7996964782001332</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.8707526441861729</v>
+        <v>0.8685514519380463</v>
       </c>
     </row>
     <row r="30">
@@ -7910,19 +7910,19 @@
         <v>4277</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>1024</v>
+        <v>1016</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>11420</v>
+        <v>11154</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.002364899526764111</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.0005663730778499055</v>
+        <v>0.0005616102562326447</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.006314427979822441</v>
+        <v>0.006167347004503208</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>5</v>
@@ -7931,19 +7931,19 @@
         <v>5104</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>1966</v>
+        <v>1964</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>11439</v>
+        <v>11466</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.00239052459736481</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.0009210040486154921</v>
+        <v>0.0009201281585330331</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.005358107193649041</v>
+        <v>0.005370622622756593</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>9</v>
@@ -7952,19 +7952,19 @@
         <v>9381</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>4380</v>
+        <v>4307</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>16537</v>
+        <v>16571</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.002378772639091803</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.001110675620796689</v>
+        <v>0.001092273719764161</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.004193520710101424</v>
+        <v>0.004202140948404362</v>
       </c>
     </row>
     <row r="33">
@@ -7984,7 +7984,7 @@
         <v>0</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>4649</v>
+        <v>4872</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.0005387105241518108</v>
@@ -7993,7 +7993,7 @@
         <v>0</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.002570636263684842</v>
+        <v>0.002693942795240239</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>0</v>
@@ -8018,7 +8018,7 @@
         <v>0</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>4865</v>
+        <v>5275</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.0002470589720400241</v>
@@ -8027,7 +8027,7 @@
         <v>0</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.001233660007174631</v>
+        <v>0.001337566261322908</v>
       </c>
     </row>
     <row r="34">
@@ -8044,19 +8044,19 @@
         <v>31128</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>21400</v>
+        <v>20715</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>44146</v>
+        <v>43409</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.01721207559296959</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.01183279567698566</v>
+        <v>0.01145439242999694</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.02441018226632881</v>
+        <v>0.02400227830663523</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>46</v>
@@ -8065,19 +8065,19 @@
         <v>47649</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>35607</v>
+        <v>35738</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>64975</v>
+        <v>64866</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.02231873203585054</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.01667811911732698</v>
+        <v>0.01673944553123301</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.03043389060014522</v>
+        <v>0.03038298136247106</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>74</v>
@@ -8086,19 +8086,19 @@
         <v>78778</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>62687</v>
+        <v>61972</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>99092</v>
+        <v>99472</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.01997675942760018</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.01589634385961507</v>
+        <v>0.01571517842541971</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.0251280386408555</v>
+        <v>0.02522462608117305</v>
       </c>
     </row>
     <row r="35">
@@ -8115,19 +8115,19 @@
         <v>29073</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>19444</v>
+        <v>19669</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>41551</v>
+        <v>43142</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.01607546555221005</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.01075114094796413</v>
+        <v>0.01087587496136753</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.02297509602750203</v>
+        <v>0.0238550303339327</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>24</v>
@@ -8136,19 +8136,19 @@
         <v>25508</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>16492</v>
+        <v>16334</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>37739</v>
+        <v>37711</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.01194781635557086</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.007724709971051274</v>
+        <v>0.007650923914641966</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.01767684565943364</v>
+        <v>0.01766347499079458</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>49</v>
@@ -8157,19 +8157,19 @@
         <v>54581</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>41370</v>
+        <v>40460</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>70968</v>
+        <v>74289</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.01384080474496444</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.01049081450218348</v>
+        <v>0.010260061706155</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.01799624466428782</v>
+        <v>0.01883861571281377</v>
       </c>
     </row>
     <row r="36">
@@ -8186,19 +8186,19 @@
         <v>54762</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>40998</v>
+        <v>42348</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>71442</v>
+        <v>72123</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.03028013148889898</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.0226692786436521</v>
+        <v>0.02341565436388277</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.03950314066838718</v>
+        <v>0.03987979712873441</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>51</v>
@@ -8207,19 +8207,19 @@
         <v>51497</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>39443</v>
+        <v>39722</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>67233</v>
+        <v>66360</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.0241209793547929</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.0184749291760174</v>
+        <v>0.01860569682980728</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.03149182883935304</v>
+        <v>0.03108268729854233</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>101</v>
@@ -8228,19 +8228,19 @@
         <v>106259</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>86499</v>
+        <v>86073</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>128180</v>
+        <v>129561</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.02694563884568778</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.02193478315145958</v>
+        <v>0.02182660809025399</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.03250427493171749</v>
+        <v>0.03285466716594645</v>
       </c>
     </row>
     <row r="37">
@@ -8257,19 +8257,19 @@
         <v>13900</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>8099</v>
+        <v>7336</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>23160</v>
+        <v>24073</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.007686076773757325</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.00447845054394126</v>
+        <v>0.004056539175192813</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.01280622146325948</v>
+        <v>0.01331063862135556</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>47</v>
@@ -8278,19 +8278,19 @@
         <v>45854</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>33871</v>
+        <v>34758</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>60326</v>
+        <v>58882</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.0214778786081925</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.01586522247582443</v>
+        <v>0.01628028961183686</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.0282564750091809</v>
+        <v>0.02757998926247703</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>59</v>
@@ -8299,19 +8299,19 @@
         <v>59755</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>45440</v>
+        <v>44915</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>76497</v>
+        <v>75721</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.01515279634038246</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.01152292427422643</v>
+        <v>0.01138965070699872</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.01939832932604727</v>
+        <v>0.01920161076559823</v>
       </c>
     </row>
     <row r="38">
@@ -8328,19 +8328,19 @@
         <v>1674405</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>1649834</v>
+        <v>1650500</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>1696967</v>
+        <v>1694390</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.9258426405412481</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.9122566607046495</v>
+        <v>0.9126249122493654</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.9383182072598596</v>
+        <v>0.9368931632379166</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>1756</v>
@@ -8349,19 +8349,19 @@
         <v>1959335</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>1931746</v>
+        <v>1930230</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>1983013</v>
+        <v>1980068</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.9177440690482284</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.9048216560615284</v>
+        <v>0.9041113473675007</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.9288345931683817</v>
+        <v>0.9274551650895285</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>3370</v>
@@ -8370,19 +8370,19 @@
         <v>3633740</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>3598715</v>
+        <v>3595669</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>3665693</v>
+        <v>3665667</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.9214581690302334</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.9125765267717976</v>
+        <v>0.9118039780496424</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.9295610011849875</v>
+        <v>0.929554360610198</v>
       </c>
     </row>
     <row r="39">
@@ -8713,19 +8713,19 @@
         <v>9469</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>4246</v>
+        <v>4563</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>18111</v>
+        <v>18308</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02835233436666416</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01271240358791147</v>
+        <v>0.01366396630648653</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0542298014770086</v>
+        <v>0.05481871941669318</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>24</v>
@@ -8734,19 +8734,19 @@
         <v>17159</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>11265</v>
+        <v>11340</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>25117</v>
+        <v>26809</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03757670358113302</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02466884188260169</v>
+        <v>0.02483351859756769</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05500235594755223</v>
+        <v>0.05870805280493598</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>32</v>
@@ -8755,19 +8755,19 @@
         <v>26628</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>18432</v>
+        <v>17983</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>37659</v>
+        <v>38158</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.03368015805705817</v>
+        <v>0.03368015805705818</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0233127190868402</v>
+        <v>0.02274521995430597</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04763219859416642</v>
+        <v>0.0482631638431116</v>
       </c>
     </row>
     <row r="5">
@@ -8881,7 +8881,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>7410</v>
+        <v>7022</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.004391244809119014</v>
@@ -8890,7 +8890,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02218877866061062</v>
+        <v>0.02102463095358518</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>3</v>
@@ -8899,19 +8899,19 @@
         <v>1553</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>4717</v>
+        <v>4575</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.003401910978052038</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.0006165481145953988</v>
+        <v>0.0006122805320040628</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01033018398370154</v>
+        <v>0.01001938562567546</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>4</v>
@@ -8920,19 +8920,19 @@
         <v>3020</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>9455</v>
+        <v>9119</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.003819824032227398</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.000953644585910446</v>
+        <v>0.0009495087864914153</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01195862401419414</v>
+        <v>0.01153429509315025</v>
       </c>
     </row>
     <row r="8">
@@ -8949,19 +8949,19 @@
         <v>8010</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>3557</v>
+        <v>3725</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>14876</v>
+        <v>14641</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.02398335116171572</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.01065050806642991</v>
+        <v>0.01115473611808556</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.0445434225883658</v>
+        <v>0.04384005108020755</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>12</v>
@@ -8970,19 +8970,19 @@
         <v>8913</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>4769</v>
+        <v>4942</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>15994</v>
+        <v>16057</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.01951856059773269</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.01044276279245954</v>
+        <v>0.01082242737026641</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.03502516361172738</v>
+        <v>0.03516346649040789</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>20</v>
@@ -8991,19 +8991,19 @@
         <v>16923</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>10783</v>
+        <v>10742</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>27238</v>
+        <v>26567</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.02140457136806604</v>
+        <v>0.02140457136806605</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.01363875632832755</v>
+        <v>0.01358692553973456</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.03445147573209752</v>
+        <v>0.03360297859949508</v>
       </c>
     </row>
     <row r="9">
@@ -9020,19 +9020,19 @@
         <v>6949</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>2846</v>
+        <v>2934</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>14751</v>
+        <v>14816</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.02080605480701187</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.008522301894265094</v>
+        <v>0.008784038843927535</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.0441672136322144</v>
+        <v>0.04436353399510137</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>3</v>
@@ -9041,19 +9041,19 @@
         <v>2351</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>714</v>
+        <v>703</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>6549</v>
+        <v>6565</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.005147746570283248</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.001563268403695385</v>
+        <v>0.001538794260346712</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.01434042638269715</v>
+        <v>0.01437591119479107</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>9</v>
@@ -9062,19 +9062,19 @@
         <v>9299</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>4437</v>
+        <v>4268</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>17697</v>
+        <v>16429</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.01176210788386847</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.005611449535189862</v>
+        <v>0.005397906023280992</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.02238322111709981</v>
+        <v>0.0207796131064776</v>
       </c>
     </row>
     <row r="10">
@@ -9107,7 +9107,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>5294</v>
+        <v>4359</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.001927051527802647</v>
@@ -9116,7 +9116,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01159316880218468</v>
+        <v>0.009545738340461974</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1</v>
@@ -9128,16 +9128,16 @@
         <v>0</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>4452</v>
+        <v>4395</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.001113029036861691</v>
+        <v>0.001113029036861692</v>
       </c>
       <c r="V10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.005631520780273023</v>
+        <v>0.005559366161741686</v>
       </c>
     </row>
     <row r="11">
@@ -9154,19 +9154,19 @@
         <v>308080</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>296145</v>
+        <v>296223</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>316833</v>
+        <v>316416</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9224670148554891</v>
+        <v>0.9224670148554893</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.886730801555064</v>
+        <v>0.8869636052719206</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9486748643451567</v>
+        <v>0.9474284526077591</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>778</v>
@@ -9175,19 +9175,19 @@
         <v>425792</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>415033</v>
+        <v>415353</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>434371</v>
+        <v>434652</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.9324280267449963</v>
+        <v>0.9324280267449964</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9088661442333367</v>
+        <v>0.9095682468921673</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9512140367951194</v>
+        <v>0.9518304915694741</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1210</v>
@@ -9196,19 +9196,19 @@
         <v>733872</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>719326</v>
+        <v>716825</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>746368</v>
+        <v>745953</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9282203096219183</v>
+        <v>0.9282203096219184</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9098220528452003</v>
+        <v>0.9066587394951697</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9440253831676236</v>
+        <v>0.9435008208716995</v>
       </c>
     </row>
     <row r="12">
@@ -9300,19 +9300,19 @@
         <v>70821</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>54349</v>
+        <v>53474</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>91179</v>
+        <v>90885</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.08854590344594511</v>
+        <v>0.0885459034459451</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.06795175805873808</v>
+        <v>0.06685669424611236</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1139987480787082</v>
+        <v>0.1136307833816653</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>89</v>
@@ -9321,19 +9321,19 @@
         <v>71234</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>57984</v>
+        <v>57626</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>86564</v>
+        <v>89769</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.08383345052871698</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.06823958915745654</v>
+        <v>0.06781828390226989</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.101874672475329</v>
+        <v>0.105647349877611</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>145</v>
@@ -9342,19 +9342,19 @@
         <v>142055</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>119596</v>
+        <v>119689</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>168016</v>
+        <v>167166</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.08611842191749616</v>
+        <v>0.08611842191749618</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.07250316049734301</v>
+        <v>0.07255953226406366</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1018569202803199</v>
+        <v>0.1013412796141635</v>
       </c>
     </row>
     <row r="14">
@@ -9421,7 +9421,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>4114</v>
+        <v>4709</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.001150274151738846</v>
@@ -9430,7 +9430,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.005144141455444895</v>
+        <v>0.005886952149391941</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>1</v>
@@ -9442,7 +9442,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>3279</v>
+        <v>3829</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.0007730949515305633</v>
@@ -9451,7 +9451,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.003859320726922208</v>
+        <v>0.004505706075907089</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>2</v>
@@ -9463,16 +9463,16 @@
         <v>0</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>5015</v>
+        <v>5445</v>
       </c>
       <c r="U15" s="6" t="n">
-        <v>0.0009559813794814419</v>
+        <v>0.0009559813794814421</v>
       </c>
       <c r="V15" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.003040287008941108</v>
+        <v>0.003301226763999166</v>
       </c>
     </row>
     <row r="16">
@@ -9489,19 +9489,19 @@
         <v>11726</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>5843</v>
+        <v>6184</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>20312</v>
+        <v>20462</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01466087702792956</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.007305118964632911</v>
+        <v>0.007731128104412894</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02539502416752002</v>
+        <v>0.02558291613396274</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>13</v>
@@ -9510,19 +9510,19 @@
         <v>11739</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>6188</v>
+        <v>5972</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>20566</v>
+        <v>20849</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01381538623433316</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.00728191899443777</v>
+        <v>0.007028045431904671</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02420357219597029</v>
+        <v>0.02453679548276721</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>24</v>
@@ -9531,19 +9531,19 @@
         <v>23465</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>15292</v>
+        <v>14726</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>34071</v>
+        <v>34501</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.01422534731124517</v>
+        <v>0.01422534731124518</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.009270278173456286</v>
+        <v>0.008927151847385715</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02065488370575902</v>
+        <v>0.02091588544881585</v>
       </c>
     </row>
     <row r="17">
@@ -9560,19 +9560,19 @@
         <v>36148</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>25171</v>
+        <v>24362</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>52995</v>
+        <v>52178</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.04519470488013057</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.03147054927875558</v>
+        <v>0.03045892580181189</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.06625858119125758</v>
+        <v>0.06523688056205798</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>49</v>
@@ -9581,19 +9581,19 @@
         <v>36632</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>26329</v>
+        <v>26860</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>48750</v>
+        <v>48992</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.04311111097574293</v>
+        <v>0.04311111097574295</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.03098614396641227</v>
+        <v>0.03161138678578285</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.05737222461810135</v>
+        <v>0.05765725426386033</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>81</v>
@@ -9602,19 +9602,19 @@
         <v>72780</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>58473</v>
+        <v>56948</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>93788</v>
+        <v>94179</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.04412140275817222</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.03544797012911403</v>
+        <v>0.0345235201406305</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.0568574158263004</v>
+        <v>0.05709450346899105</v>
       </c>
     </row>
     <row r="18">
@@ -9631,19 +9631,19 @@
         <v>32742</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>22265</v>
+        <v>21876</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>46423</v>
+        <v>47253</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.04093679456288748</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.02783700381532836</v>
+        <v>0.02735073022944098</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.05804151827106892</v>
+        <v>0.05907880536888544</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>38</v>
@@ -9652,19 +9652,19 @@
         <v>29519</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>20181</v>
+        <v>21718</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>39595</v>
+        <v>40788</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.03474067303286545</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.0237506337911655</v>
+        <v>0.02555965380820777</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.04659792466706703</v>
+        <v>0.0480027432230233</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>67</v>
@@ -9673,19 +9673,19 @@
         <v>62262</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>48486</v>
+        <v>48406</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>79159</v>
+        <v>79049</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.03774504478281748</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.02939400118576081</v>
+        <v>0.02934533545603054</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.0479884949828413</v>
+        <v>0.04792211607701136</v>
       </c>
     </row>
     <row r="19">
@@ -9702,19 +9702,19 @@
         <v>9752</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>4199</v>
+        <v>3974</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>21302</v>
+        <v>20472</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01219307749562569</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.005249915563787316</v>
+        <v>0.004968409267242265</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.02663367077276582</v>
+        <v>0.0255958241296988</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>12</v>
@@ -9723,19 +9723,19 @@
         <v>12605</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>6565</v>
+        <v>6704</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>22377</v>
+        <v>21919</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01483464816667244</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.007725949620338928</v>
+        <v>0.007889748898600991</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.02633441579780742</v>
+        <v>0.02579647792575707</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>19</v>
@@ -9744,19 +9744,19 @@
         <v>22357</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>13311</v>
+        <v>13104</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>35022</v>
+        <v>35530</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01355380493899506</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.00806963691273376</v>
+        <v>0.007944152800662256</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.02123132535707332</v>
+        <v>0.02153958904438599</v>
       </c>
     </row>
     <row r="20">
@@ -9773,19 +9773,19 @@
         <v>637714</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>611398</v>
+        <v>612782</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>661326</v>
+        <v>660606</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7973183684357428</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7644156600862403</v>
+        <v>0.7661459651847572</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.826839540598866</v>
+        <v>0.8259390780045338</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1112</v>
@@ -9794,19 +9794,19 @@
         <v>687322</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>667807</v>
+        <v>664893</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>709020</v>
+        <v>708591</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8088916361101385</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7859248560566605</v>
+        <v>0.7824963301040229</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8344283708169016</v>
+        <v>0.8339234824179902</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1859</v>
@@ -9815,19 +9815,19 @@
         <v>1325036</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1284008</v>
+        <v>1291387</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1352905</v>
+        <v>1356559</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.8032799969117923</v>
+        <v>0.8032799969117924</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7784074318452991</v>
+        <v>0.7828806668333175</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8201749638708378</v>
+        <v>0.8223903203583155</v>
       </c>
     </row>
     <row r="21">
@@ -9919,19 +9919,19 @@
         <v>26520</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>16967</v>
+        <v>16880</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>40322</v>
+        <v>39496</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.09374624237854184</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.0599770151294448</v>
+        <v>0.05967203722006959</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1425372177937782</v>
+        <v>0.1396178407287989</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>33</v>
@@ -9940,19 +9940,19 @@
         <v>27742</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>19364</v>
+        <v>19277</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>38315</v>
+        <v>39232</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.09538428409761276</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.06657861615400389</v>
+        <v>0.06627911682004128</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1317381711429867</v>
+        <v>0.1348915912792208</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>54</v>
@@ -9961,19 +9961,19 @@
         <v>54261</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>42132</v>
+        <v>41419</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>72883</v>
+        <v>70977</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.09457661886902705</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.07343636545248428</v>
+        <v>0.07219208137717394</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1270336028584971</v>
+        <v>0.1237116052395283</v>
       </c>
     </row>
     <row r="23">
@@ -10040,7 +10040,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>4042</v>
+        <v>4155</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.002853549305571849</v>
@@ -10049,7 +10049,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.01428710888113793</v>
+        <v>0.01468750015996529</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>0</v>
@@ -10074,7 +10074,7 @@
         <v>0</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>4700</v>
+        <v>5161</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.001406992584702004</v>
@@ -10083,7 +10083,7 @@
         <v>0</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.008192318653762205</v>
+        <v>0.008995014735410627</v>
       </c>
     </row>
     <row r="25">
@@ -10100,19 +10100,19 @@
         <v>4145</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1150</v>
+        <v>1147</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>10127</v>
+        <v>10458</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01465349844550643</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.00406568432146963</v>
+        <v>0.004053056419400415</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.03579742961048948</v>
+        <v>0.03696938321663214</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>11</v>
@@ -10121,19 +10121,19 @@
         <v>11484</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>5395</v>
+        <v>5315</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>22147</v>
+        <v>20515</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.03948652435204558</v>
+        <v>0.03948652435204557</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.01854876504479993</v>
+        <v>0.01827401062207542</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.07614645111026916</v>
+        <v>0.07053819401841244</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>15</v>
@@ -10142,19 +10142,19 @@
         <v>15630</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>8740</v>
+        <v>8621</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>26332</v>
+        <v>26590</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.02724216493691663</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01523316538867906</v>
+        <v>0.01502561282333277</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.04589709724088812</v>
+        <v>0.04634598654899737</v>
       </c>
     </row>
     <row r="26">
@@ -10171,19 +10171,19 @@
         <v>12219</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>5666</v>
+        <v>6046</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>22385</v>
+        <v>23563</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.04319412255812589</v>
+        <v>0.0431941225581259</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.02002760945156832</v>
+        <v>0.02137233378980966</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.07913170957778388</v>
+        <v>0.08329333318752905</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>18</v>
@@ -10192,19 +10192,19 @@
         <v>12157</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>7297</v>
+        <v>7100</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>19349</v>
+        <v>19447</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.04180100865596661</v>
+        <v>0.0418010086559666</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.02508840491172702</v>
+        <v>0.02441212183509724</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.06652902848015343</v>
+        <v>0.06686300108317225</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>28</v>
@@ -10213,19 +10213,19 @@
         <v>24377</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>15996</v>
+        <v>16419</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>36060</v>
+        <v>35559</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.0424879079242414</v>
+        <v>0.04248790792424142</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.02788045168210687</v>
+        <v>0.02861793650996241</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.06285199793785211</v>
+        <v>0.06197803980391119</v>
       </c>
     </row>
     <row r="27">
@@ -10242,19 +10242,19 @@
         <v>13054</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>6975</v>
+        <v>7294</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>22504</v>
+        <v>22711</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.04614592319528157</v>
+        <v>0.04614592319528158</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.02465609690963614</v>
+        <v>0.02578336711277487</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.07955276574341985</v>
+        <v>0.08028436924304048</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>25</v>
@@ -10263,19 +10263,19 @@
         <v>20472</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>13944</v>
+        <v>13511</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>30382</v>
+        <v>29617</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>0.07038964807117071</v>
+        <v>0.07038964807117072</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.04794385627535185</v>
+        <v>0.04645640438776633</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.1044605336516301</v>
+        <v>0.1018324365097251</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>37</v>
@@ -10284,19 +10284,19 @@
         <v>33526</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>24125</v>
+        <v>24333</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>45691</v>
+        <v>46141</v>
       </c>
       <c r="U27" s="6" t="n">
-        <v>0.05843585387552573</v>
+        <v>0.05843585387552575</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.04205023796880841</v>
+        <v>0.04241254682823073</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.07963963306096813</v>
+        <v>0.08042325391887639</v>
       </c>
     </row>
     <row r="28">
@@ -10316,7 +10316,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>7198</v>
+        <v>6401</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.006386576991282406</v>
@@ -10325,7 +10325,7 @@
         <v>0</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.02544470982822256</v>
+        <v>0.02262634435037673</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>7</v>
@@ -10334,19 +10334,19 @@
         <v>6513</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>2634</v>
+        <v>2855</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>12817</v>
+        <v>13172</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.02239225114597416</v>
+        <v>0.02239225114597415</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.009058121947387861</v>
+        <v>0.009814729184029767</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.04406750174811538</v>
+        <v>0.04528966454732719</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>9</v>
@@ -10355,19 +10355,19 @@
         <v>8319</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>3772</v>
+        <v>4048</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>15755</v>
+        <v>15660</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.01450037249336582</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.006573943929796396</v>
+        <v>0.007056018769593221</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.02746106998206583</v>
+        <v>0.02729573864861303</v>
       </c>
     </row>
     <row r="29">
@@ -10384,19 +10384,19 @@
         <v>224335</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>209762</v>
+        <v>207264</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>238415</v>
+        <v>237921</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.7930200871256899</v>
+        <v>0.7930200871256901</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.7415048227686036</v>
+        <v>0.732674931199517</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.8427923016681617</v>
+        <v>0.8410456194900001</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>339</v>
@@ -10405,19 +10405,19 @@
         <v>212474</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>198141</v>
+        <v>198853</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>226440</v>
+        <v>227299</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.7305462836772302</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.6812677492786049</v>
+        <v>0.6837132771864762</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.7785662967878132</v>
+        <v>0.7815213315336546</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>613</v>
@@ -10426,19 +10426,19 @@
         <v>436808</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>415014</v>
+        <v>413582</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>456594</v>
+        <v>456775</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.7613500893162213</v>
+        <v>0.7613500893162214</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.7233633033647289</v>
+        <v>0.7208679696540311</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.7958370570832578</v>
+        <v>0.7961521622379746</v>
       </c>
     </row>
     <row r="30">
@@ -10530,19 +10530,19 @@
         <v>106810</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>85674</v>
+        <v>85504</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>130124</v>
+        <v>131197</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.07539409118840865</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.06047492380777596</v>
+        <v>0.06035532153881835</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.09185127927407842</v>
+        <v>0.09260854574426391</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>146</v>
@@ -10551,19 +10551,19 @@
         <v>116135</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>98917</v>
+        <v>98025</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>137042</v>
+        <v>137924</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.07271170246259728</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.06193134508759427</v>
+        <v>0.06137319330660331</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.08580133064429811</v>
+        <v>0.08635381327336207</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>231</v>
@@ -10572,19 +10572,19 @@
         <v>222945</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>194171</v>
+        <v>197210</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>253613</v>
+        <v>255855</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.07397256726232809</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.06442546286849063</v>
+        <v>0.06543392398023141</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.08414823256731982</v>
+        <v>0.084892266143787</v>
       </c>
     </row>
     <row r="32">
@@ -10651,7 +10651,7 @@
         <v>0</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>6171</v>
+        <v>5990</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.001219218685976367</v>
@@ -10660,7 +10660,7 @@
         <v>0</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.004356205185350054</v>
+        <v>0.004228501105108204</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>1</v>
@@ -10672,7 +10672,7 @@
         <v>0</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>3942</v>
+        <v>3800</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.0004112856569611971</v>
@@ -10681,7 +10681,7 @@
         <v>0</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.002467812263709479</v>
+        <v>0.002379431860750383</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>3</v>
@@ -10690,19 +10690,19 @@
         <v>2384</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>650</v>
+        <v>658</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>6794</v>
+        <v>6802</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.0007910569805664244</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.0002156068177730283</v>
+        <v>0.0002184364960287656</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.00225423966469222</v>
+        <v>0.002257039950140757</v>
       </c>
     </row>
     <row r="34">
@@ -10719,19 +10719,19 @@
         <v>17338</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>10332</v>
+        <v>10141</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>28334</v>
+        <v>27951</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.01223840712652015</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.007293131011310124</v>
+        <v>0.007158117311615125</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.02000019521714786</v>
+        <v>0.01972968143378041</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>27</v>
@@ -10740,19 +10740,19 @@
         <v>24777</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>15533</v>
+        <v>16202</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>37565</v>
+        <v>37086</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.01551268933753782</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.009725322360225509</v>
+        <v>0.01014416583790675</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.02351927033308767</v>
+        <v>0.02321926537302107</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>43</v>
@@ -10761,19 +10761,19 @@
         <v>42115</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>30489</v>
+        <v>30955</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>58528</v>
+        <v>56779</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.01397360324441081</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.01011618107151106</v>
+        <v>0.01027076095629061</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.01941939140135969</v>
+        <v>0.01883907234601227</v>
       </c>
     </row>
     <row r="35">
@@ -10790,19 +10790,19 @@
         <v>56377</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>41755</v>
+        <v>42385</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>73878</v>
+        <v>76476</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.0397947904196396</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.02947385991184974</v>
+        <v>0.02991873741633853</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.05214853404342797</v>
+        <v>0.05398232720298476</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>79</v>
@@ -10811,19 +10811,19 @@
         <v>57702</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>45644</v>
+        <v>46453</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>72651</v>
+        <v>72652</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.03612728954034764</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.02857758273646824</v>
+        <v>0.02908435026492338</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.04548665421803463</v>
+        <v>0.0454870878880896</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>129</v>
@@ -10832,19 +10832,19 @@
         <v>114079</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>94937</v>
+        <v>95309</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>138431</v>
+        <v>136608</v>
       </c>
       <c r="U35" s="6" t="n">
-        <v>0.03785120923818424</v>
+        <v>0.03785120923818425</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.03150003366768731</v>
+        <v>0.03162342037200679</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.04593117882657768</v>
+        <v>0.04532638677805192</v>
       </c>
     </row>
     <row r="36">
@@ -10861,19 +10861,19 @@
         <v>52745</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>38078</v>
+        <v>38887</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>69572</v>
+        <v>69567</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.03723127925047533</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.0268784353957953</v>
+        <v>0.027449405263775</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.04910878099668671</v>
+        <v>0.04910520955494564</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>66</v>
@@ -10882,19 +10882,19 @@
         <v>52342</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>41073</v>
+        <v>41278</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>65605</v>
+        <v>68112</v>
       </c>
       <c r="N36" s="6" t="n">
-        <v>0.03277136275100484</v>
+        <v>0.03277136275100485</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.0257154838288704</v>
+        <v>0.02584415469422615</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.04107507502147845</v>
+        <v>0.04264456546945707</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>113</v>
@@ -10903,19 +10903,19 @@
         <v>105087</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>86374</v>
+        <v>86270</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>128318</v>
+        <v>127253</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.03486775976826417</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.02865863365709804</v>
+        <v>0.02862414509517485</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.04257553790492608</v>
+        <v>0.04222232287894584</v>
       </c>
     </row>
     <row r="37">
@@ -10932,19 +10932,19 @@
         <v>11559</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>5162</v>
+        <v>5505</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>22524</v>
+        <v>23801</v>
       </c>
       <c r="G37" s="6" t="n">
-        <v>0.00815918631659332</v>
+        <v>0.008159186316593318</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.003644005647346384</v>
+        <v>0.003885834327368968</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.01589905413309268</v>
+        <v>0.01680037825442545</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>20</v>
@@ -10953,19 +10953,19 @@
         <v>19998</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>12695</v>
+        <v>12107</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>31840</v>
+        <v>30330</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.0125204854070934</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.00794811918293304</v>
+        <v>0.007579948205576417</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.01993474406252477</v>
+        <v>0.0189896274881268</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>29</v>
@@ -10974,19 +10974,19 @@
         <v>31557</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>21074</v>
+        <v>20865</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>46843</v>
+        <v>44598</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.01047044379627272</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.006992374886972945</v>
+        <v>0.006923063950804611</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.01554224336534431</v>
+        <v>0.01479767803261454</v>
       </c>
     </row>
     <row r="38">
@@ -11003,19 +11003,19 @@
         <v>1170129</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>1137778</v>
+        <v>1138528</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>1200232</v>
+        <v>1200878</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.8259630270123866</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.8031267970951189</v>
+        <v>0.8036566872865893</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.8472115708472828</v>
+        <v>0.84766783069282</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>2229</v>
@@ -11024,19 +11024,19 @@
         <v>1325587</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>1297611</v>
+        <v>1297287</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>1351162</v>
+        <v>1349181</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.8299451848444577</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.8124293399390045</v>
+        <v>0.8122265181137142</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.8459576149940523</v>
+        <v>0.8447173055952192</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>3682</v>
@@ -11045,19 +11045,19 @@
         <v>2495716</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>2454297</v>
+        <v>2453497</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>2539035</v>
+        <v>2538748</v>
       </c>
       <c r="U38" s="6" t="n">
-        <v>0.8280733597099734</v>
+        <v>0.8280733597099735</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.814330608089872</v>
+        <v>0.8140651706341382</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.8424465988329285</v>
+        <v>0.8423511684621714</v>
       </c>
     </row>
     <row r="39">
